--- a/hbv_v14_gamma_3.xlsx
+++ b/hbv_v14_gamma_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\hepb-vimc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B02C3E-BD22-4BEA-BE8A-B555374BFBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD6CF0C-9F90-42EF-A997-9C34B1FE35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00121D21-746A-4F35-B812-2659197875EA}"/>
+    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{00121D21-746A-4F35-B812-2659197875EA}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -12425,7 +12425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
